--- a/Aspire test suites v.1.0.xlsx
+++ b/Aspire test suites v.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcha/Documents/WorkSP/AspireAppDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBBE06-50E8-4740-BBA3-1A0DB9BD1869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103149E-EBA6-854D-88E0-08FEB419921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="500" windowWidth="35000" windowHeight="21900" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,7 +2303,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2744,6 +2744,9 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7866,7 +7869,7 @@
   <dimension ref="A3:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -7888,11 +7891,11 @@
       <c r="H3" s="122"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="B5" s="114" t="s">
+      <c r="C5" s="176" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
       <c r="F5" s="114"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8106,7 +8109,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B9:B10"/>
@@ -9383,9 +9387,9 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11347,9 +11351,9 @@
   </sheetPr>
   <dimension ref="A1:P461"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Aspire test suites v.1.0.xlsx
+++ b/Aspire test suites v.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcha/Documents/WorkSP/AspireAppDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103149E-EBA6-854D-88E0-08FEB419921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317751A-A199-E24F-BCF8-5B198810386B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="35000" windowHeight="21900" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="35000" windowHeight="21900" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -1371,12 +1371,6 @@
 + User should go to unincorporated page after selecting the business</t>
   </si>
   <si>
-    <t>To Verify new account unincorporated country when opening new account as director</t>
-  </si>
-  <si>
-    <t>To Verify new account unincorporated country when opening new account as non employee</t>
-  </si>
-  <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
 2. Click register link
 3. Verify UI of Register page
@@ -1391,9 +1385,6 @@
     <t>REG_001</t>
   </si>
   <si>
-    <t>To Verify new account unincorporated country when opening new account as freelancer</t>
-  </si>
-  <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
 2. Click register link
 3. Verify UI of Register page
@@ -1403,9 +1394,6 @@
 7. Select new account as freelancer and click continue
 8. Select more additional information details like company registered (Angola)
 9. Verify the business unincorporated in Angola</t>
-  </si>
-  <si>
-    <t>To Verify new account created to Incorporate my company</t>
   </si>
   <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
@@ -1540,19 +1528,7 @@
 </t>
   </si>
   <si>
-    <t>To Verify registerd director account successfully and Incorporated</t>
-  </si>
-  <si>
-    <t>To Verify registerd employee account successfully and Incorporated</t>
-  </si>
-  <si>
     <t>NOT YET</t>
-  </si>
-  <si>
-    <t>To Verify registerd freelancer account successfully and Incorporated</t>
-  </si>
-  <si>
-    <t>To Verify registerd entrepreneur account successfully and Incorporated</t>
   </si>
   <si>
     <t>Verify onboarding personal detail form</t>
@@ -1592,6 +1568,30 @@
   </si>
   <si>
     <t>Init draft</t>
+  </si>
+  <si>
+    <t>Verify registerd director account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as director</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as non employee</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as freelancer</t>
+  </si>
+  <si>
+    <t>Verify new account created to Incorporate my company</t>
+  </si>
+  <si>
+    <t>Verify registerd employee account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t>Verify registerd freelancer account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t>Verify registerd entrepreneur account successfully and Incorporated</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2285,6 +2285,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2303,7 +2316,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2679,48 +2692,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="18" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="21" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2744,8 +2715,56 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="18" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="21" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2762,7 +2781,7 @@
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal_CUPP (RFC 91358) - SIT Test Case_MF" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="339">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -4202,42 +4221,6 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
@@ -5549,14 +5532,6 @@
         <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7868,7 +7843,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -7891,30 +7866,30 @@
       <c r="H3" s="122"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="114"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="165" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="165" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7922,11 +7897,11 @@
       <c r="A10" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7942,7 +7917,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="61"/>
       <c r="F11" s="61" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7958,13 +7933,13 @@
       <c r="F12" s="61"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="62" t="s">
@@ -8036,26 +8011,26 @@
       <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
     </row>
     <row r="47" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="174" t="s">
-        <v>413</v>
-      </c>
-      <c r="B47" s="175" t="s">
-        <v>414</v>
+      <c r="A47" s="160" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" s="161" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="108" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -8139,8 +8114,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8151,20 +8126,20 @@
     <col min="4" max="4" width="58" style="49" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="172" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="158" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" style="53" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="171" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="151"/>
       <c r="H1" s="151"/>
     </row>
@@ -8188,15 +8163,15 @@
         <v>295</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
-        <v>407</v>
+      <c r="A3" s="172" t="s">
+        <v>399</v>
       </c>
       <c r="B3" s="94" t="str">
         <f>'Register Suite'!B7</f>
@@ -8204,9 +8179,9 @@
       </c>
       <c r="C3" s="95" t="str">
         <f>VLOOKUP(B3,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd director account successfully and Incorporated</v>
-      </c>
-      <c r="D3" s="173" t="str">
+        <v>Verify registerd director account successfully and Incorporated</v>
+      </c>
+      <c r="D3" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8220,7 +8195,7 @@
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G3" s="171" t="str">
+      <c r="G3" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8230,16 +8205,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A4" s="159"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="94" t="str">
         <f>'Register Suite'!B8</f>
         <v>REG_002</v>
       </c>
       <c r="C4" s="95" t="str">
         <f>VLOOKUP(B4,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as director</v>
-      </c>
-      <c r="D4" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as director</v>
+      </c>
+      <c r="D4" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8253,7 +8228,7 @@
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G4" s="171" t="str">
+      <c r="G4" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8263,16 +8238,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="159"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="94" t="str">
         <f>'Register Suite'!B9</f>
         <v>REG_003</v>
       </c>
       <c r="C5" s="95" t="str">
         <f>VLOOKUP(B5,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as non employee</v>
-      </c>
-      <c r="D5" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as non employee</v>
+      </c>
+      <c r="D5" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8286,7 +8261,7 @@
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G5" s="171" t="str">
+      <c r="G5" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8296,16 +8271,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="159"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="94" t="str">
         <f>'Register Suite'!B10</f>
         <v>REG_004</v>
       </c>
       <c r="C6" s="95" t="str">
         <f>VLOOKUP(B6,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as freelancer</v>
-      </c>
-      <c r="D6" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as freelancer</v>
+      </c>
+      <c r="D6" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8319,7 +8294,7 @@
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G6" s="171" t="str">
+      <c r="G6" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8328,17 +8303,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="159"/>
+    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A7" s="172"/>
       <c r="B7" s="94" t="str">
         <f>'Register Suite'!B11</f>
         <v>REG_005</v>
       </c>
       <c r="C7" s="95" t="str">
         <f>VLOOKUP(B7,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account created to Incorporate my company</v>
-      </c>
-      <c r="D7" s="173" t="str">
+        <v>Verify new account created to Incorporate my company</v>
+      </c>
+      <c r="D7" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8352,7 +8327,7 @@
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G7" s="171" t="str">
+      <c r="G7" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8362,7 +8337,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="159"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="94" t="str">
         <f>'Register Suite'!B12</f>
         <v>REG_006</v>
@@ -8371,7 +8346,7 @@
         <f>VLOOKUP(B8,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify new account register is existed and associated</v>
       </c>
-      <c r="D8" s="173" t="str">
+      <c r="D8" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "The email has already been taken." and "The phone has already been taken."</v>
       </c>
@@ -8383,7 +8358,7 @@
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G8" s="171" t="str">
+      <c r="G8" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8393,7 +8368,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="159"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="94" t="str">
         <f>'Register Suite'!B13</f>
         <v>REG_007</v>
@@ -8402,7 +8377,7 @@
         <f>VLOOKUP(B9,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verity empty fullname</v>
       </c>
-      <c r="D9" s="173" t="str">
+      <c r="D9" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Full Name as per ID is required."</v>
       </c>
@@ -8414,7 +8389,7 @@
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G9" s="171" t="str">
+      <c r="G9" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8424,7 +8399,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="159"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="94" t="str">
         <f>'Register Suite'!B14</f>
         <v>REG_008</v>
@@ -8433,7 +8408,7 @@
         <f>VLOOKUP(B10,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verity empty email</v>
       </c>
-      <c r="D10" s="173" t="str">
+      <c r="D10" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address is required."</v>
       </c>
@@ -8445,7 +8420,7 @@
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G10" s="171" t="str">
+      <c r="G10" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8455,7 +8430,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="159"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="94" t="str">
         <f>'Register Suite'!B15</f>
         <v>REG_009</v>
@@ -8464,7 +8439,7 @@
         <f>VLOOKUP(B11,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify empty phone number</v>
       </c>
-      <c r="D11" s="173" t="str">
+      <c r="D11" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Mobile number is required."</v>
       </c>
@@ -8476,7 +8451,7 @@
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G11" s="171" t="str">
+      <c r="G11" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8486,7 +8461,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="159"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="94" t="str">
         <f>'Register Suite'!B16</f>
         <v>REG_010</v>
@@ -8495,7 +8470,7 @@
         <f>VLOOKUP(B12,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email contains special character</v>
       </c>
-      <c r="D12" s="173" t="str">
+      <c r="D12" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8507,7 +8482,7 @@
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G12" s="171" t="str">
+      <c r="G12" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8517,7 +8492,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="159"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="94" t="str">
         <f>'Register Suite'!B17</f>
         <v>REG_011</v>
@@ -8526,7 +8501,7 @@
         <f>VLOOKUP(B13,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email missing name</v>
       </c>
-      <c r="D13" s="173" t="str">
+      <c r="D13" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8538,7 +8513,7 @@
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G13" s="171" t="str">
+      <c r="G13" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8548,7 +8523,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="159"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="94" t="str">
         <f>'Register Suite'!B18</f>
         <v>REG_012</v>
@@ -8557,7 +8532,7 @@
         <f>VLOOKUP(B14,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email missing @ domain</v>
       </c>
-      <c r="D14" s="173" t="str">
+      <c r="D14" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8569,7 +8544,7 @@
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G14" s="171" t="str">
+      <c r="G14" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8579,7 +8554,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="159"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="94" t="str">
         <f>'Register Suite'!B19</f>
         <v>REG_013</v>
@@ -8588,7 +8563,7 @@
         <f>VLOOKUP(B15,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify invalid email domain</v>
       </c>
-      <c r="D15" s="173" t="str">
+      <c r="D15" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8600,7 +8575,7 @@
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G15" s="171" t="str">
+      <c r="G15" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8610,7 +8585,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="159"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="94" t="str">
         <f>'Register Suite'!B20</f>
         <v>REG_014</v>
@@ -8619,7 +8594,7 @@
         <f>VLOOKUP(B16,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the invalid phone number with length more than 14 characters</v>
       </c>
-      <c r="D16" s="173" t="str">
+      <c r="D16" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Verify the invalid phone number with length more than 14 characters"</v>
       </c>
@@ -8631,7 +8606,7 @@
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G16" s="171" t="str">
+      <c r="G16" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8641,7 +8616,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="159"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="94" t="str">
         <f>'Register Suite'!B21</f>
         <v>REG_015</v>
@@ -8650,7 +8625,7 @@
         <f>VLOOKUP(B17,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the invalid phone number contains string</v>
       </c>
-      <c r="D17" s="173" t="str">
+      <c r="D17" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Incorrect phone format for phone., The phone format is invalid."</v>
       </c>
@@ -8662,7 +8637,7 @@
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G17" s="171" t="str">
+      <c r="G17" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8672,7 +8647,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="159"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="94" t="str">
         <f>'Register Suite'!B22</f>
         <v>REG_016</v>
@@ -8682,7 +8657,7 @@
         <v xml:space="preserve">Verify valid referal code
 </v>
       </c>
-      <c r="D18" s="173" t="str">
+      <c r="D18" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8694,7 +8669,7 @@
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G18" s="171" t="str">
+      <c r="G18" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8704,7 +8679,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="159"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="94" t="str">
         <f>'Register Suite'!B23</f>
         <v>REG_017</v>
@@ -8714,7 +8689,7 @@
         <v xml:space="preserve">Verify Invalid refferal code
 </v>
       </c>
-      <c r="D19" s="173" t="str">
+      <c r="D19" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8726,7 +8701,7 @@
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G19" s="171" t="str">
+      <c r="G19" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8736,16 +8711,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="159"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="94" t="str">
         <f>'Register Suite'!B24</f>
         <v>REG_018</v>
       </c>
       <c r="C20" s="95" t="str">
         <f>VLOOKUP(B20,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd employee account successfully and Incorporated</v>
-      </c>
-      <c r="D20" s="173" t="str">
+        <v>Verify registerd employee account successfully and Incorporated</v>
+      </c>
+      <c r="D20" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8757,7 +8732,7 @@
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G20" s="171" t="str">
+      <c r="G20" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8767,16 +8742,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="159"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="94" t="str">
         <f>'Register Suite'!B25</f>
         <v>REG_019</v>
       </c>
       <c r="C21" s="95" t="str">
         <f>VLOOKUP(B21,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd employee account successfully and Incorporated</v>
-      </c>
-      <c r="D21" s="173" t="str">
+        <v>Verify registerd employee account successfully and Incorporated</v>
+      </c>
+      <c r="D21" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8788,7 +8763,7 @@
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G21" s="171" t="str">
+      <c r="G21" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8798,16 +8773,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="159"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="94" t="str">
         <f>'Register Suite'!B26</f>
         <v>REG_020</v>
       </c>
       <c r="C22" s="95" t="str">
         <f>VLOOKUP(B22,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd freelancer account successfully and Incorporated</v>
-      </c>
-      <c r="D22" s="173" t="str">
+        <v>Verify registerd freelancer account successfully and Incorporated</v>
+      </c>
+      <c r="D22" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8819,7 +8794,7 @@
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G22" s="171" t="str">
+      <c r="G22" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8829,16 +8804,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="159"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="94" t="str">
         <f>'Register Suite'!B27</f>
         <v>REG_021</v>
       </c>
       <c r="C23" s="95" t="str">
         <f>VLOOKUP(B23,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd entrepreneur account successfully and Incorporated</v>
-      </c>
-      <c r="D23" s="173" t="str">
+        <v>Verify registerd entrepreneur account successfully and Incorporated</v>
+      </c>
+      <c r="D23" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8850,7 +8825,7 @@
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G23" s="171" t="str">
+      <c r="G23" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8860,7 +8835,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="159"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="94" t="str">
         <f>'Register Suite'!B28</f>
         <v>REG_022</v>
@@ -8869,7 +8844,7 @@
         <f>VLOOKUP(B24,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding personal detail form</v>
       </c>
-      <c r="D24" s="173" t="str">
+      <c r="D24" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8881,7 +8856,7 @@
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G24" s="171" t="str">
+      <c r="G24" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8891,7 +8866,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="159"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="94" t="str">
         <f>'Register Suite'!B29</f>
         <v>REG_023</v>
@@ -8900,7 +8875,7 @@
         <f>VLOOKUP(B25,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding business detail form</v>
       </c>
-      <c r="D25" s="173" t="str">
+      <c r="D25" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8912,7 +8887,7 @@
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G25" s="171" t="str">
+      <c r="G25" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8922,7 +8897,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="159"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="94" t="str">
         <f>'Register Suite'!B30</f>
         <v>REG_024</v>
@@ -8931,7 +8906,7 @@
         <f>VLOOKUP(B26,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding identify detail form</v>
       </c>
-      <c r="D26" s="173" t="str">
+      <c r="D26" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8943,7 +8918,7 @@
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G26" s="171" t="str">
+      <c r="G26" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8953,8 +8928,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="159" t="s">
-        <v>406</v>
+      <c r="A27" s="172" t="s">
+        <v>398</v>
       </c>
       <c r="B27" s="94" t="str">
         <f>'Login Suite'!B7</f>
@@ -8964,7 +8939,7 @@
         <f>VLOOKUP(B27,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the Login page should be displayed correctly</v>
       </c>
-      <c r="D27" s="173" t="str">
+      <c r="D27" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Login page should be display correctly</v>
       </c>
@@ -8976,7 +8951,7 @@
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G27" s="171" t="str">
+      <c r="G27" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8986,7 +8961,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="159"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="94" t="str">
         <f>'Login Suite'!B8</f>
         <v>LOG_002</v>
@@ -8995,7 +8970,7 @@
         <f>VLOOKUP(B28,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the existing user email login successfully</v>
       </c>
-      <c r="D28" s="173" t="str">
+      <c r="D28" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Home page should be display correctly</v>
       </c>
@@ -9007,7 +8982,7 @@
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G28" s="171" t="str">
+      <c r="G28" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9017,7 +8992,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="159"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="94" t="str">
         <f>'Login Suite'!B9</f>
         <v>LOG_003</v>
@@ -9026,7 +9001,7 @@
         <f>VLOOKUP(B29,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the existing  phone number login successfully</v>
       </c>
-      <c r="D29" s="173" t="str">
+      <c r="D29" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Home page should be display correctly</v>
       </c>
@@ -9038,7 +9013,7 @@
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G29" s="171" t="str">
+      <c r="G29" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9048,7 +9023,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="159"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="94" t="str">
         <f>'Login Suite'!B10</f>
         <v>LOG_004</v>
@@ -9057,7 +9032,7 @@
         <f>VLOOKUP(B30,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verity unregistered email</v>
       </c>
-      <c r="D30" s="173" t="str">
+      <c r="D30" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The entered email address is invalid."</v>
       </c>
@@ -9069,7 +9044,7 @@
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G30" s="171" t="str">
+      <c r="G30" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9079,7 +9054,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="159"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="94" t="str">
         <f>'Login Suite'!B11</f>
         <v>LOG_005</v>
@@ -9088,7 +9063,7 @@
         <f>VLOOKUP(B31,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verity unregistered phone number</v>
       </c>
-      <c r="D31" s="173" t="str">
+      <c r="D31" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The entered phone number is invalid."</v>
       </c>
@@ -9100,7 +9075,7 @@
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G31" s="171" t="str">
+      <c r="G31" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9110,7 +9085,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="159"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="94" t="str">
         <f>'Login Suite'!B12</f>
         <v>LOG_006</v>
@@ -9119,7 +9094,7 @@
         <f>VLOOKUP(B32,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify empty username</v>
       </c>
-      <c r="D32" s="173" t="str">
+      <c r="D32" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The phone field is required when email is not present."</v>
       </c>
@@ -9131,7 +9106,7 @@
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G32" s="171" t="str">
+      <c r="G32" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9141,7 +9116,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="159"/>
+      <c r="A33" s="172"/>
       <c r="B33" s="94" t="str">
         <f>'Login Suite'!B13</f>
         <v>LOG_007</v>
@@ -9150,7 +9125,7 @@
         <f>VLOOKUP(B33,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the  email contains special character</v>
       </c>
-      <c r="D33" s="173" t="str">
+      <c r="D33" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9162,7 +9137,7 @@
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G33" s="171" t="str">
+      <c r="G33" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9172,7 +9147,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="159"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="94" t="str">
         <f>'Login Suite'!B14</f>
         <v>LOG_008</v>
@@ -9181,7 +9156,7 @@
         <f>VLOOKUP(B34,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the email missing name</v>
       </c>
-      <c r="D34" s="173" t="str">
+      <c r="D34" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9193,7 +9168,7 @@
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G34" s="171" t="str">
+      <c r="G34" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9203,7 +9178,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="159"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="94" t="str">
         <f>'Login Suite'!B15</f>
         <v>LOG_009</v>
@@ -9212,7 +9187,7 @@
         <f>VLOOKUP(B35,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the email mising @ domain</v>
       </c>
-      <c r="D35" s="173" t="str">
+      <c r="D35" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9224,7 +9199,7 @@
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G35" s="171" t="str">
+      <c r="G35" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9234,7 +9209,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="159"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="94" t="str">
         <f>'Login Suite'!B16</f>
         <v>LOG_010</v>
@@ -9243,7 +9218,7 @@
         <f>VLOOKUP(B36,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify invalid email domain</v>
       </c>
-      <c r="D36" s="173" t="str">
+      <c r="D36" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9255,7 +9230,7 @@
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G36" s="171" t="str">
+      <c r="G36" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9265,7 +9240,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="159"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="94" t="str">
         <f>'Login Suite'!B17</f>
         <v>LOG_011</v>
@@ -9274,7 +9249,7 @@
         <f>VLOOKUP(B37,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the invalid phone number with length more than 21 characters</v>
       </c>
-      <c r="D37" s="173" t="str">
+      <c r="D37" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9286,7 +9261,7 @@
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G37" s="171" t="str">
+      <c r="G37" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9296,7 +9271,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="159"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="94" t="str">
         <f>'Login Suite'!B18</f>
         <v>LOG_012</v>
@@ -9305,7 +9280,7 @@
         <f>VLOOKUP(B38,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the invalid phone number contains string</v>
       </c>
-      <c r="D38" s="173" t="str">
+      <c r="D38" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9317,7 +9292,7 @@
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G38" s="171" t="str">
+      <c r="G38" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9327,7 +9302,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="159"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="94" t="str">
         <f>'Login Suite'!B19</f>
         <v>LOG_013</v>
@@ -9336,7 +9311,7 @@
         <f>VLOOKUP(B39,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Some other negative tests</v>
       </c>
-      <c r="D39" s="173" t="str">
+      <c r="D39" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v/>
       </c>
@@ -9348,7 +9323,7 @@
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G39" s="171" t="str">
+      <c r="G39" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>No</v>
       </c>
@@ -9365,10 +9340,10 @@
     <mergeCell ref="A27:A39"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E39">
-    <cfRule type="containsText" dxfId="342" priority="17" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="338" priority="17" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="18" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="337" priority="18" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9412,7 +9387,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="162" t="s">
         <v>298</v>
       </c>
       <c r="B1" s="71">
@@ -9576,17 +9551,17 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="80" customFormat="1" ht="270" x14ac:dyDescent="0.15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="173" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="126" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>359</v>
@@ -9618,7 +9593,7 @@
       <c r="P7" s="145"/>
     </row>
     <row r="8" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A8" s="162"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B7)+1,"000")</f>
         <v>REG_002</v>
@@ -9627,7 +9602,7 @@
         <v>341</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>338</v>
@@ -9659,7 +9634,7 @@
       <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:16" s="80" customFormat="1" ht="180" x14ac:dyDescent="0.15">
-      <c r="A9" s="162"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B8)+1,"000")</f>
         <v>REG_003</v>
@@ -9668,10 +9643,10 @@
         <v>341</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="E9" s="128" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F9" s="152" t="s">
         <v>363</v>
@@ -9700,7 +9675,7 @@
       <c r="P9" s="145"/>
     </row>
     <row r="10" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A10" s="162"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B9)+1,"000")</f>
         <v>REG_004</v>
@@ -9709,10 +9684,10 @@
         <v>341</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F10" s="152" t="s">
         <v>363</v>
@@ -9741,7 +9716,7 @@
       <c r="P10" s="145"/>
     </row>
     <row r="11" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A11" s="162"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B10)+1,"000")</f>
         <v>REG_005</v>
@@ -9750,13 +9725,13 @@
         <v>341</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="E11" s="128" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F11" s="152" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>361</v>
@@ -9782,7 +9757,7 @@
       <c r="P11" s="145"/>
     </row>
     <row r="12" spans="1:16" s="80" customFormat="1" ht="135" x14ac:dyDescent="0.15">
-      <c r="A12" s="162"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B11)+1,"000")</f>
         <v>REG_006</v>
@@ -9791,13 +9766,13 @@
         <v>341</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E12" s="128" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>361</v>
@@ -9823,7 +9798,7 @@
       <c r="P12" s="145"/>
     </row>
     <row r="13" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="174" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="126" t="str">
@@ -9832,13 +9807,13 @@
       </c>
       <c r="C13" s="133"/>
       <c r="D13" s="128" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E13" s="128" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>325</v>
@@ -9863,20 +9838,20 @@
       <c r="P13" s="145"/>
     </row>
     <row r="14" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A14" s="164"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B13)+1,"000")</f>
         <v>REG_008</v>
       </c>
       <c r="C14" s="133"/>
       <c r="D14" s="128" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E14" s="128" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G14" s="129" t="s">
         <v>325</v>
@@ -9902,20 +9877,20 @@
       <c r="P14" s="145"/>
     </row>
     <row r="15" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A15" s="164"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B14)+1,"000")</f>
         <v>REG_009</v>
       </c>
       <c r="C15" s="152"/>
       <c r="D15" s="128" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E15" s="128" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>325</v>
@@ -9939,17 +9914,17 @@
       <c r="N15" s="134"/>
     </row>
     <row r="16" spans="1:16" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A16" s="164"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B15)+1,"000")</f>
         <v>REG_010</v>
       </c>
       <c r="C16" s="133"/>
       <c r="D16" s="128" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E16" s="128" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F16" s="128" t="s">
         <v>339</v>
@@ -9976,7 +9951,7 @@
       <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:14" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A17" s="164"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B16)+1,"000")</f>
         <v>REG_011</v>
@@ -9986,7 +9961,7 @@
         <v>351</v>
       </c>
       <c r="E17" s="128" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F17" s="128" t="s">
         <v>339</v>
@@ -10013,17 +9988,17 @@
       <c r="N17" s="134"/>
     </row>
     <row r="18" spans="1:14" s="146" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="164"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B17)+1,"000")</f>
         <v>REG_012</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="128" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E18" s="128" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F18" s="128" t="s">
         <v>339</v>
@@ -10050,7 +10025,7 @@
       <c r="N18" s="134"/>
     </row>
     <row r="19" spans="1:14" s="146" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="164"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B18)+1,"000")</f>
         <v>REG_013</v>
@@ -10060,7 +10035,7 @@
         <v>353</v>
       </c>
       <c r="E19" s="128" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F19" s="128" t="s">
         <v>339</v>
@@ -10087,20 +10062,20 @@
       <c r="N19" s="134"/>
     </row>
     <row r="20" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A20" s="164"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B19)+1,"000")</f>
         <v>REG_014</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="128" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E20" s="128" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G20" s="129" t="s">
         <v>325</v>
@@ -10124,7 +10099,7 @@
       <c r="N20" s="134"/>
     </row>
     <row r="21" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A21" s="165"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B20)+1,"000")</f>
         <v>REG_015</v>
@@ -10134,10 +10109,10 @@
         <v>355</v>
       </c>
       <c r="E21" s="128" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F21" s="128" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G21" s="129" t="s">
         <v>325</v>
@@ -10161,8 +10136,8 @@
       <c r="N21" s="134"/>
     </row>
     <row r="22" spans="1:14" s="146" customFormat="1" ht="55.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="166" t="s">
-        <v>396</v>
+      <c r="A22" s="177" t="s">
+        <v>392</v>
       </c>
       <c r="B22" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B21)+1,"000")</f>
@@ -10170,7 +10145,7 @@
       </c>
       <c r="C22" s="152"/>
       <c r="D22" s="128" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="128"/>
@@ -10183,19 +10158,19 @@
         <v>298</v>
       </c>
       <c r="M22" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N22" s="167"/>
+        <v>394</v>
+      </c>
+      <c r="N22" s="153"/>
     </row>
     <row r="23" spans="1:14" s="146" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="166"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B22)+1,"000")</f>
         <v>REG_017</v>
       </c>
       <c r="C23" s="152"/>
       <c r="D23" s="128" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E23" s="128"/>
       <c r="F23" s="128"/>
@@ -10208,19 +10183,19 @@
         <v>298</v>
       </c>
       <c r="M23" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N23" s="167"/>
+        <v>394</v>
+      </c>
+      <c r="N23" s="153"/>
     </row>
     <row r="24" spans="1:14" s="146" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="166"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B23)+1,"000")</f>
         <v>REG_018</v>
       </c>
       <c r="C24" s="152"/>
       <c r="D24" s="128" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="128"/>
@@ -10233,157 +10208,157 @@
         <v>298</v>
       </c>
       <c r="M24" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N24" s="167"/>
+        <v>394</v>
+      </c>
+      <c r="N24" s="153"/>
     </row>
     <row r="25" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A25" s="166"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B24)+1,"000")</f>
         <v>REG_019</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="128" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E25" s="116"/>
       <c r="F25" s="116"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="126"/>
       <c r="J25" s="86"/>
-      <c r="K25" s="170"/>
+      <c r="K25" s="156"/>
       <c r="L25" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A26" s="166"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B25)+1,"000")</f>
         <v>REG_020</v>
       </c>
       <c r="C26" s="116"/>
       <c r="D26" s="128" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E26" s="116"/>
       <c r="F26" s="116"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="155"/>
       <c r="I26" s="126"/>
       <c r="J26" s="86"/>
-      <c r="K26" s="170"/>
+      <c r="K26" s="156"/>
       <c r="L26" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M26" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A27" s="166"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B26)+1,"000")</f>
         <v>REG_021</v>
       </c>
       <c r="C27" s="116"/>
       <c r="D27" s="128" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
       <c r="I27" s="126"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="170"/>
+      <c r="K27" s="156"/>
       <c r="L27" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M27" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="166"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B27)+1,"000")</f>
         <v>REG_022</v>
       </c>
       <c r="C28" s="116"/>
       <c r="D28" s="116" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
       <c r="I28" s="126"/>
       <c r="J28" s="86"/>
-      <c r="K28" s="170"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M28" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="166"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B28)+1,"000")</f>
         <v>REG_023</v>
       </c>
       <c r="C29" s="116"/>
       <c r="D29" s="116" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E29" s="116"/>
       <c r="F29" s="116"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="169"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
       <c r="I29" s="126"/>
       <c r="J29" s="86"/>
-      <c r="K29" s="170"/>
+      <c r="K29" s="156"/>
       <c r="L29" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M29" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="166"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B29)+1,"000")</f>
         <v>REG_024</v>
       </c>
       <c r="C30" s="116"/>
       <c r="D30" s="116" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E30" s="116"/>
       <c r="F30" s="116"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
       <c r="I30" s="126"/>
       <c r="J30" s="86"/>
-      <c r="K30" s="170"/>
+      <c r="K30" s="156"/>
       <c r="L30" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M30" s="126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N30" s="82"/>
     </row>
@@ -10394,873 +10369,873 @@
     <mergeCell ref="A22:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:C30">
-    <cfRule type="expression" dxfId="340" priority="247">
+    <cfRule type="expression" dxfId="336" priority="247">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="339" priority="246">
+    <cfRule type="expression" dxfId="335" priority="246">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F29 G22:G24 G16:G17 E16:E29">
-    <cfRule type="expression" dxfId="338" priority="248">
+    <cfRule type="expression" dxfId="334" priority="248">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K29 G25:H29 F22:F24 K12 F16:F18 M22:M23">
-    <cfRule type="expression" dxfId="337" priority="245">
+    <cfRule type="expression" dxfId="333" priority="245">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="336" priority="242" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="332" priority="242" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="243" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="331" priority="243" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="244" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="330" priority="244" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="333" priority="237" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="329" priority="237" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="238" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="328" priority="238" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="239" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="327" priority="239" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="240" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="326" priority="240" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="241" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="325" priority="241" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="328" priority="234" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="324" priority="234" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="235" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="323" priority="235" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="236" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="322" priority="236" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="containsText" dxfId="325" priority="225" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="321" priority="225" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="226" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="320" priority="226" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="227" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="319" priority="227" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="containsText" dxfId="322" priority="222" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="318" priority="222" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="223" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="317" priority="223" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="224" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="316" priority="224" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="319" priority="216" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="315" priority="216" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="217" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="314" priority="217" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="218" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="313" priority="218" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="316" priority="219" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="312" priority="219" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="220" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="311" priority="220" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="221" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="310" priority="221" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="313" priority="210" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="309" priority="210" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="211" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="308" priority="211" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="212" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="307" priority="212" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="310" priority="213" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="306" priority="213" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="214" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="305" priority="214" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="215" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="304" priority="215" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="307" priority="204" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="303" priority="204" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="205" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="302" priority="205" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="206" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="301" priority="206" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="304" priority="207" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="300" priority="207" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="208" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="299" priority="208" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="209" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="298" priority="209" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 K22:K24 C16:C24">
-    <cfRule type="expression" dxfId="301" priority="203">
+    <cfRule type="expression" dxfId="297" priority="203">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 H22:H24 H12 H16:H17 D16:D24">
-    <cfRule type="expression" dxfId="300" priority="202">
+    <cfRule type="expression" dxfId="296" priority="202">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="299" priority="200">
+    <cfRule type="expression" dxfId="295" priority="200">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G22:G24 G16:G17 M22:M23">
-    <cfRule type="expression" dxfId="298" priority="201">
+    <cfRule type="expression" dxfId="294" priority="201">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="297" priority="197" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="293" priority="197" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="198" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="292" priority="198" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="199" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="291" priority="199" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="294" priority="195">
+    <cfRule type="expression" dxfId="290" priority="195">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="293" priority="196">
+    <cfRule type="expression" dxfId="289" priority="196">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="292" priority="194">
+    <cfRule type="expression" dxfId="288" priority="194">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="291" priority="193">
+    <cfRule type="expression" dxfId="287" priority="193">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="290" priority="190" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="286" priority="190" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="191" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="285" priority="191" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="192" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="284" priority="192" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="286" priority="188">
+    <cfRule type="expression" dxfId="283" priority="188">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="285" priority="187">
+    <cfRule type="expression" dxfId="282" priority="187">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N9">
-    <cfRule type="containsText" dxfId="284" priority="184" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="281" priority="184" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="185" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="280" priority="185" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="186" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="279" priority="186" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="281" priority="183">
+    <cfRule type="expression" dxfId="278" priority="183">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="280" priority="182">
+    <cfRule type="expression" dxfId="277" priority="182">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="279" priority="177" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="276" priority="177" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="178" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="275" priority="178" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="179" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="274" priority="179" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H19">
-    <cfRule type="expression" dxfId="276" priority="176">
+    <cfRule type="expression" dxfId="273" priority="176">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="275" priority="174">
+    <cfRule type="expression" dxfId="272" priority="174">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="274" priority="170">
+    <cfRule type="expression" dxfId="271" priority="170">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="273" priority="163" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="270" priority="163" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="164" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="269" priority="164" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="165" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="268" priority="165" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="270" priority="162">
+    <cfRule type="expression" dxfId="267" priority="162">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="269" priority="159" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="266" priority="159" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L17))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="160" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="265" priority="160" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L17))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="161" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="264" priority="161" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="266" priority="158">
+    <cfRule type="expression" dxfId="263" priority="158">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="265" priority="156">
+    <cfRule type="expression" dxfId="262" priority="156">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="264" priority="157">
+    <cfRule type="expression" dxfId="261" priority="157">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="263" priority="155">
+    <cfRule type="expression" dxfId="260" priority="155">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="262" priority="152" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="259" priority="152" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="153" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="258" priority="153" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="154" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="257" priority="154" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="259" priority="151">
+    <cfRule type="expression" dxfId="256" priority="151">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="expression" dxfId="258" priority="150">
+    <cfRule type="expression" dxfId="255" priority="150">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="257" priority="148">
+    <cfRule type="expression" dxfId="254" priority="148">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="256" priority="149">
+    <cfRule type="expression" dxfId="253" priority="149">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="255" priority="145" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="252" priority="145" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L19))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="146" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="251" priority="146" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L19))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="147" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="250" priority="147" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="252" priority="144">
+    <cfRule type="expression" dxfId="249" priority="144">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="251" priority="143">
+    <cfRule type="expression" dxfId="248" priority="143">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="250" priority="141">
+    <cfRule type="expression" dxfId="247" priority="141">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="249" priority="142">
+    <cfRule type="expression" dxfId="246" priority="142">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="248" priority="138" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="245" priority="138" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L20))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="139" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="244" priority="139" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L20))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="140" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="243" priority="140" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="245" priority="137">
+    <cfRule type="expression" dxfId="242" priority="137">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="244" priority="136">
+    <cfRule type="expression" dxfId="241" priority="136">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="243" priority="135">
+    <cfRule type="expression" dxfId="240" priority="135">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="242" priority="133">
+    <cfRule type="expression" dxfId="239" priority="133">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="241" priority="134">
+    <cfRule type="expression" dxfId="238" priority="134">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="240" priority="130" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="237" priority="130" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L21))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="131" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="236" priority="131" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L21))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="132" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="235" priority="132" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="237" priority="129">
+    <cfRule type="expression" dxfId="234" priority="129">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="236" priority="128">
+    <cfRule type="expression" dxfId="233" priority="128">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="235" priority="127">
+    <cfRule type="expression" dxfId="232" priority="127">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="234" priority="126">
+    <cfRule type="expression" dxfId="231" priority="126">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="233" priority="125">
+    <cfRule type="expression" dxfId="230" priority="125">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="232" priority="123">
+    <cfRule type="expression" dxfId="229" priority="123">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="231" priority="124">
+    <cfRule type="expression" dxfId="228" priority="124">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="230" priority="120">
+    <cfRule type="expression" dxfId="227" priority="120">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="229" priority="117">
+    <cfRule type="expression" dxfId="226" priority="117">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="228" priority="118">
+    <cfRule type="expression" dxfId="225" priority="118">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="227" priority="116">
+    <cfRule type="expression" dxfId="224" priority="116">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="226" priority="115">
+    <cfRule type="expression" dxfId="223" priority="115">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="225" priority="65">
+    <cfRule type="expression" dxfId="222" priority="65">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="224" priority="96">
+    <cfRule type="expression" dxfId="221" priority="96">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="223" priority="95">
+    <cfRule type="expression" dxfId="220" priority="95">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="222" priority="94">
+    <cfRule type="expression" dxfId="219" priority="94">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="221" priority="107">
+    <cfRule type="expression" dxfId="218" priority="107">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="220" priority="57">
+    <cfRule type="expression" dxfId="217" priority="57">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="219" priority="56">
+    <cfRule type="expression" dxfId="216" priority="56">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="218" priority="88">
+    <cfRule type="expression" dxfId="215" priority="88">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="214" priority="99" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L9))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="213" priority="100" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L9))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="212" priority="101" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="214" priority="98">
+    <cfRule type="expression" dxfId="211" priority="98">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="213" priority="97">
+    <cfRule type="expression" dxfId="210" priority="97">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="212" priority="92">
+    <cfRule type="expression" dxfId="209" priority="92">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="211" priority="93">
+    <cfRule type="expression" dxfId="208" priority="93">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="210" priority="91">
+    <cfRule type="expression" dxfId="207" priority="91">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="209" priority="90">
+    <cfRule type="expression" dxfId="206" priority="90">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="208" priority="89">
+    <cfRule type="expression" dxfId="205" priority="89">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="207" priority="72">
+    <cfRule type="expression" dxfId="204" priority="72">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="containsText" dxfId="206" priority="85" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="203" priority="85" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="86" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="202" priority="86" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="87" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="201" priority="87" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="203" priority="82" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="200" priority="82" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="83" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="199" priority="83" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="84" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="198" priority="84" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="200" priority="81">
+    <cfRule type="expression" dxfId="197" priority="81">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="199" priority="80">
+    <cfRule type="expression" dxfId="196" priority="80">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="198" priority="79">
+    <cfRule type="expression" dxfId="195" priority="79">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="197" priority="78">
+    <cfRule type="expression" dxfId="194" priority="78">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="196" priority="77">
+    <cfRule type="expression" dxfId="193" priority="77">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="195" priority="76">
+    <cfRule type="expression" dxfId="192" priority="76">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="194" priority="74">
+    <cfRule type="expression" dxfId="191" priority="74">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="193" priority="75">
+    <cfRule type="expression" dxfId="190" priority="75">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="192" priority="73">
+    <cfRule type="expression" dxfId="189" priority="73">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="191" priority="69" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="188" priority="69" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="70" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="187" priority="70" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="71" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="186" priority="71" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="188" priority="66" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="185" priority="66" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="67" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="184" priority="67" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="68" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="183" priority="68" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="185" priority="64">
+    <cfRule type="expression" dxfId="182" priority="64">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="184" priority="63">
+    <cfRule type="expression" dxfId="181" priority="63">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="183" priority="62">
+    <cfRule type="expression" dxfId="180" priority="62">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="182" priority="61">
+    <cfRule type="expression" dxfId="179" priority="61">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="181" priority="60">
+    <cfRule type="expression" dxfId="178" priority="60">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="180" priority="58">
+    <cfRule type="expression" dxfId="177" priority="58">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="179" priority="59">
+    <cfRule type="expression" dxfId="176" priority="59">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="178" priority="55">
+    <cfRule type="expression" dxfId="175" priority="55">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="177" priority="54">
+    <cfRule type="expression" dxfId="174" priority="54">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="176" priority="53">
+    <cfRule type="expression" dxfId="173" priority="53">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="175" priority="52">
+    <cfRule type="expression" dxfId="172" priority="52">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 H14">
-    <cfRule type="expression" dxfId="174" priority="50">
+    <cfRule type="expression" dxfId="171" priority="50">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="173" priority="49">
+    <cfRule type="expression" dxfId="170" priority="49">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="172" priority="46" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="169" priority="46" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="47" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="168" priority="47" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="48" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="167" priority="48" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="169" priority="45">
+    <cfRule type="expression" dxfId="166" priority="45">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 E13">
-    <cfRule type="expression" dxfId="168" priority="44">
+    <cfRule type="expression" dxfId="165" priority="44">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 H13">
-    <cfRule type="expression" dxfId="167" priority="42">
+    <cfRule type="expression" dxfId="164" priority="42">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="166" priority="41">
+    <cfRule type="expression" dxfId="163" priority="41">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="165" priority="38" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="162" priority="38" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L13))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="39" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="161" priority="39" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L13))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="40" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="160" priority="40" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="162" priority="37">
+    <cfRule type="expression" dxfId="159" priority="37">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="161" priority="36">
+    <cfRule type="expression" dxfId="158" priority="36">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="160" priority="35">
+    <cfRule type="expression" dxfId="157" priority="35">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="159" priority="34">
+    <cfRule type="expression" dxfId="156" priority="34">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="158" priority="33">
+    <cfRule type="expression" dxfId="155" priority="33">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="157" priority="32">
+    <cfRule type="expression" dxfId="154" priority="32">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 H15">
-    <cfRule type="expression" dxfId="156" priority="31">
+    <cfRule type="expression" dxfId="153" priority="31">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="155" priority="30">
+    <cfRule type="expression" dxfId="152" priority="30">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="154" priority="27" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L15))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="28" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L15))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="29" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="151" priority="26">
+    <cfRule type="expression" dxfId="148" priority="26">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="150" priority="25">
+    <cfRule type="expression" dxfId="147" priority="25">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="149" priority="24">
+    <cfRule type="expression" dxfId="146" priority="24">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="148" priority="23">
+    <cfRule type="expression" dxfId="145" priority="23">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M21">
-    <cfRule type="expression" dxfId="147" priority="21">
+    <cfRule type="expression" dxfId="144" priority="21">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M21">
-    <cfRule type="expression" dxfId="146" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M29">
-    <cfRule type="expression" dxfId="145" priority="20">
+    <cfRule type="expression" dxfId="142" priority="20">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M29">
-    <cfRule type="expression" dxfId="144" priority="19">
+    <cfRule type="expression" dxfId="141" priority="19">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="143" priority="16" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="140" priority="16" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="17" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="18" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11540,7 +11515,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="173" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="126" t="s">
@@ -11582,7 +11557,7 @@
       <c r="P7" s="145"/>
     </row>
     <row r="8" spans="1:16" s="80" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A8" s="162"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B7)+1,"000")</f>
         <v>LOG_002</v>
@@ -11591,7 +11566,7 @@
         <v>342</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>345</v>
@@ -11623,7 +11598,7 @@
       <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:16" s="80" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A9" s="162"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B8)+1,"000")</f>
         <v>LOG_003</v>
@@ -11664,7 +11639,7 @@
       <c r="P9" s="145"/>
     </row>
     <row r="10" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="178" t="s">
         <v>314</v>
       </c>
       <c r="B10" s="126" t="str">
@@ -11706,7 +11681,7 @@
       <c r="P10" s="145"/>
     </row>
     <row r="11" spans="1:16" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A11" s="161"/>
+      <c r="A11" s="178"/>
       <c r="B11" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B10)+1,"000")</f>
         <v>LOG_005</v>
@@ -11747,7 +11722,7 @@
       <c r="P11" s="145"/>
     </row>
     <row r="12" spans="1:16" s="146" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A12" s="161"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B11)+1,"000")</f>
         <v>LOG_006</v>
@@ -11784,7 +11759,7 @@
       <c r="N12" s="134"/>
     </row>
     <row r="13" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A13" s="161"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B12)+1,"000")</f>
         <v>LOG_007</v>
@@ -11821,7 +11796,7 @@
       <c r="N13" s="148"/>
     </row>
     <row r="14" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A14" s="161"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B13)+1,"000")</f>
         <v>LOG_008</v>
@@ -11858,16 +11833,16 @@
       <c r="N14" s="134"/>
     </row>
     <row r="15" spans="1:16" s="146" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="161"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B14)+1,"000")</f>
         <v>LOG_009</v>
       </c>
       <c r="C15" s="127"/>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="163" t="s">
         <v>334</v>
       </c>
       <c r="F15" s="128" t="s">
@@ -11895,7 +11870,7 @@
       <c r="N15" s="134"/>
     </row>
     <row r="16" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A16" s="161"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B15)+1,"000")</f>
         <v>LOG_010</v>
@@ -11932,7 +11907,7 @@
       <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A17" s="161"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B16)+1,"000")</f>
         <v>LOG_011</v>
@@ -11969,7 +11944,7 @@
       <c r="N17" s="134"/>
     </row>
     <row r="18" spans="1:14" s="146" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="161"/>
+      <c r="A18" s="178"/>
       <c r="B18" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B17)+1,"000")</f>
         <v>LOG_012</v>
@@ -12006,7 +11981,7 @@
       <c r="N18" s="134"/>
     </row>
     <row r="19" spans="1:14" s="146" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="161"/>
+      <c r="A19" s="178"/>
       <c r="B19" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B18)+1,"000")</f>
         <v>LOG_013</v>
@@ -12023,10 +11998,10 @@
       <c r="J19" s="126"/>
       <c r="K19" s="131"/>
       <c r="L19" s="126" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="N19" s="134"/>
     </row>
@@ -41350,6 +41325,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058B78AD4F1D6D34795556595ECF804CB" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9838be08e1aecc7203c4fd426e461731">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3529c15b-f721-48fc-a72e-2ebe1c3de0cb" xmlns:ns3="e5833d04-818c-44ee-8d64-cff0fc62111a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41d4703b495450a6d53f5a16ccf86efb" ns2:_="" ns3:_="">
     <xsd:import namespace="3529c15b-f721-48fc-a72e-2ebe1c3de0cb"/>
@@ -41540,7 +41521,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -41549,13 +41530,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0C0904-25A0-4FA7-B212-D4BB6E57D741}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e5833d04-818c-44ee-8d64-cff0fc62111a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3529c15b-f721-48fc-a72e-2ebe1c3de0cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E66BDB-1559-47D3-AB88-3671A1CD3D0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41574,27 +41566,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66080F70-78A9-49A1-8D7B-15E03C53B94C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0C0904-25A0-4FA7-B212-D4BB6E57D741}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e5833d04-818c-44ee-8d64-cff0fc62111a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3529c15b-f721-48fc-a72e-2ebe1c3de0cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Aspire test suites v.1.0.xlsx
+++ b/Aspire test suites v.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcha/Documents/WorkSP/AspireAppDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103149E-EBA6-854D-88E0-08FEB419921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3B6185-1CE3-FC42-80B5-9FC3C045DDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="35000" windowHeight="21900" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="35000" windowHeight="21900" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="414">
   <si>
     <t>STT</t>
   </si>
@@ -1312,13 +1312,7 @@
     <t>Verify empty username</t>
   </si>
   <si>
-    <t>Verify the  email contains special character</t>
-  </si>
-  <si>
     <t>Verify the email missing name</t>
-  </si>
-  <si>
-    <t>Verify the email mising @ domain</t>
   </si>
   <si>
     <t>Verify invalid email domain</t>
@@ -1371,12 +1365,6 @@
 + User should go to unincorporated page after selecting the business</t>
   </si>
   <si>
-    <t>To Verify new account unincorporated country when opening new account as director</t>
-  </si>
-  <si>
-    <t>To Verify new account unincorporated country when opening new account as non employee</t>
-  </si>
-  <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
 2. Click register link
 3. Verify UI of Register page
@@ -1391,9 +1379,6 @@
     <t>REG_001</t>
   </si>
   <si>
-    <t>To Verify new account unincorporated country when opening new account as freelancer</t>
-  </si>
-  <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
 2. Click register link
 3. Verify UI of Register page
@@ -1403,9 +1388,6 @@
 7. Select new account as freelancer and click continue
 8. Select more additional information details like company registered (Angola)
 9. Verify the business unincorporated in Angola</t>
-  </si>
-  <si>
-    <t>To Verify new account created to Incorporate my company</t>
   </si>
   <si>
     <t>1. Go to site https://feature-qa-automation.customer-frontend.staging.aspireapp.com/sg/
@@ -1529,30 +1511,10 @@
 5. Unforcused field</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify valid referal code
-</t>
-  </si>
-  <si>
     <t>Others case not yet implemented</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify Invalid refferal code
-</t>
-  </si>
-  <si>
-    <t>To Verify registerd director account successfully and Incorporated</t>
-  </si>
-  <si>
-    <t>To Verify registerd employee account successfully and Incorporated</t>
-  </si>
-  <si>
     <t>NOT YET</t>
-  </si>
-  <si>
-    <t>To Verify registerd freelancer account successfully and Incorporated</t>
-  </si>
-  <si>
-    <t>To Verify registerd entrepreneur account successfully and Incorporated</t>
   </si>
   <si>
     <t>Verify onboarding personal detail form</t>
@@ -1592,6 +1554,38 @@
   </si>
   <si>
     <t>Init draft</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as director</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as non employee</t>
+  </si>
+  <si>
+    <t>Verify new account unincorporated country when opening new account as freelancer</t>
+  </si>
+  <si>
+    <t>Verify new account created to Incorporate my company</t>
+  </si>
+  <si>
+    <t>Verify registered director account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify valid referral code
+</t>
+  </si>
+  <si>
+    <t>Verify registered employee account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t>Verify registered freelancer account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t>Verify registered entrepreneur account successfully and Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Invalid referral code
+</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2285,6 +2279,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2303,7 +2310,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2679,48 +2686,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="18" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="21" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2744,8 +2709,56 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="18" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="21" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2762,7 +2775,7 @@
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal_CUPP (RFC 91358) - SIT Test Case_MF" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="339">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -4202,42 +4215,6 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
@@ -5549,14 +5526,6 @@
         <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7869,7 +7838,7 @@
   <dimension ref="A3:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -7891,30 +7860,30 @@
       <c r="H3" s="122"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="114"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="165" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="165" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7922,11 +7891,11 @@
       <c r="A10" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7942,7 +7911,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="61"/>
       <c r="F11" s="61" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7958,13 +7927,13 @@
       <c r="F12" s="61"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="62" t="s">
@@ -8036,26 +8005,26 @@
       <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
     </row>
     <row r="47" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="174" t="s">
-        <v>413</v>
-      </c>
-      <c r="B47" s="175" t="s">
-        <v>414</v>
+      <c r="A47" s="160" t="s">
+        <v>401</v>
+      </c>
+      <c r="B47" s="161" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="108" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -8140,7 +8109,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8151,20 +8120,20 @@
     <col min="4" max="4" width="58" style="49" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="172" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="158" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" style="53" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="171" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="151"/>
       <c r="H1" s="151"/>
     </row>
@@ -8188,15 +8157,15 @@
         <v>295</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
-        <v>407</v>
+      <c r="A3" s="172" t="s">
+        <v>395</v>
       </c>
       <c r="B3" s="94" t="str">
         <f>'Register Suite'!B7</f>
@@ -8204,9 +8173,9 @@
       </c>
       <c r="C3" s="95" t="str">
         <f>VLOOKUP(B3,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd director account successfully and Incorporated</v>
-      </c>
-      <c r="D3" s="173" t="str">
+        <v>Verify registered director account successfully and Incorporated</v>
+      </c>
+      <c r="D3" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8220,7 +8189,7 @@
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G3" s="171" t="str">
+      <c r="G3" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B3,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B3,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8230,16 +8199,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A4" s="159"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="94" t="str">
         <f>'Register Suite'!B8</f>
         <v>REG_002</v>
       </c>
       <c r="C4" s="95" t="str">
         <f>VLOOKUP(B4,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as director</v>
-      </c>
-      <c r="D4" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as director</v>
+      </c>
+      <c r="D4" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8253,7 +8222,7 @@
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G4" s="171" t="str">
+      <c r="G4" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B4,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B4,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8263,16 +8232,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="159"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="94" t="str">
         <f>'Register Suite'!B9</f>
         <v>REG_003</v>
       </c>
       <c r="C5" s="95" t="str">
         <f>VLOOKUP(B5,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as non employee</v>
-      </c>
-      <c r="D5" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as non employee</v>
+      </c>
+      <c r="D5" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8286,7 +8255,7 @@
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G5" s="171" t="str">
+      <c r="G5" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B5,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B5,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8296,16 +8265,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="159"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="94" t="str">
         <f>'Register Suite'!B10</f>
         <v>REG_004</v>
       </c>
       <c r="C6" s="95" t="str">
         <f>VLOOKUP(B6,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account unincorporated country when opening new account as freelancer</v>
-      </c>
-      <c r="D6" s="173" t="str">
+        <v>Verify new account unincorporated country when opening new account as freelancer</v>
+      </c>
+      <c r="D6" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8319,7 +8288,7 @@
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G6" s="171" t="str">
+      <c r="G6" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B6,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B6,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8328,17 +8297,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="159"/>
+    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A7" s="172"/>
       <c r="B7" s="94" t="str">
         <f>'Register Suite'!B11</f>
         <v>REG_005</v>
       </c>
       <c r="C7" s="95" t="str">
         <f>VLOOKUP(B7,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify new account created to Incorporate my company</v>
-      </c>
-      <c r="D7" s="173" t="str">
+        <v>Verify new account created to Incorporate my company</v>
+      </c>
+      <c r="D7" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>+ New user registered successfully
 + All elements of each page should be displayed correctly
@@ -8352,7 +8321,7 @@
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G7" s="171" t="str">
+      <c r="G7" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B7,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8362,7 +8331,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="159"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="94" t="str">
         <f>'Register Suite'!B12</f>
         <v>REG_006</v>
@@ -8371,7 +8340,7 @@
         <f>VLOOKUP(B8,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify new account register is existed and associated</v>
       </c>
-      <c r="D8" s="173" t="str">
+      <c r="D8" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "The email has already been taken." and "The phone has already been taken."</v>
       </c>
@@ -8383,7 +8352,7 @@
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G8" s="171" t="str">
+      <c r="G8" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B8,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B8,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8393,7 +8362,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="159"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="94" t="str">
         <f>'Register Suite'!B13</f>
         <v>REG_007</v>
@@ -8402,7 +8371,7 @@
         <f>VLOOKUP(B9,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verity empty fullname</v>
       </c>
-      <c r="D9" s="173" t="str">
+      <c r="D9" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Full Name as per ID is required."</v>
       </c>
@@ -8414,7 +8383,7 @@
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G9" s="171" t="str">
+      <c r="G9" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B9,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B9,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8424,7 +8393,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="159"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="94" t="str">
         <f>'Register Suite'!B14</f>
         <v>REG_008</v>
@@ -8433,7 +8402,7 @@
         <f>VLOOKUP(B10,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verity empty email</v>
       </c>
-      <c r="D10" s="173" t="str">
+      <c r="D10" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address is required."</v>
       </c>
@@ -8445,7 +8414,7 @@
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G10" s="171" t="str">
+      <c r="G10" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B10,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B10,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8455,7 +8424,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="159"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="94" t="str">
         <f>'Register Suite'!B15</f>
         <v>REG_009</v>
@@ -8464,7 +8433,7 @@
         <f>VLOOKUP(B11,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify empty phone number</v>
       </c>
-      <c r="D11" s="173" t="str">
+      <c r="D11" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Mobile number is required."</v>
       </c>
@@ -8476,7 +8445,7 @@
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G11" s="171" t="str">
+      <c r="G11" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B11,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B11,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8486,7 +8455,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="159"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="94" t="str">
         <f>'Register Suite'!B16</f>
         <v>REG_010</v>
@@ -8495,7 +8464,7 @@
         <f>VLOOKUP(B12,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email contains special character</v>
       </c>
-      <c r="D12" s="173" t="str">
+      <c r="D12" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8507,7 +8476,7 @@
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G12" s="171" t="str">
+      <c r="G12" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B12,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B12,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8517,7 +8486,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="159"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="94" t="str">
         <f>'Register Suite'!B17</f>
         <v>REG_011</v>
@@ -8526,7 +8495,7 @@
         <f>VLOOKUP(B13,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email missing name</v>
       </c>
-      <c r="D13" s="173" t="str">
+      <c r="D13" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8538,7 +8507,7 @@
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G13" s="171" t="str">
+      <c r="G13" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B13,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B13,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8548,7 +8517,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="159"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="94" t="str">
         <f>'Register Suite'!B18</f>
         <v>REG_012</v>
@@ -8557,7 +8526,7 @@
         <f>VLOOKUP(B14,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the email missing @ domain</v>
       </c>
-      <c r="D14" s="173" t="str">
+      <c r="D14" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8569,7 +8538,7 @@
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G14" s="171" t="str">
+      <c r="G14" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B14,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B14,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8579,7 +8548,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="159"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="94" t="str">
         <f>'Register Suite'!B19</f>
         <v>REG_013</v>
@@ -8588,7 +8557,7 @@
         <f>VLOOKUP(B15,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify invalid email domain</v>
       </c>
-      <c r="D15" s="173" t="str">
+      <c r="D15" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Email address must be a valid email address."</v>
       </c>
@@ -8600,7 +8569,7 @@
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G15" s="171" t="str">
+      <c r="G15" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B15,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B15,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8610,7 +8579,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="159"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="94" t="str">
         <f>'Register Suite'!B20</f>
         <v>REG_014</v>
@@ -8619,7 +8588,7 @@
         <f>VLOOKUP(B16,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the invalid phone number with length more than 14 characters</v>
       </c>
-      <c r="D16" s="173" t="str">
+      <c r="D16" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Verify the invalid phone number with length more than 14 characters"</v>
       </c>
@@ -8631,7 +8600,7 @@
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G16" s="171" t="str">
+      <c r="G16" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B16,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B16,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8641,7 +8610,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="159"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="94" t="str">
         <f>'Register Suite'!B21</f>
         <v>REG_015</v>
@@ -8650,7 +8619,7 @@
         <f>VLOOKUP(B17,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify the invalid phone number contains string</v>
       </c>
-      <c r="D17" s="173" t="str">
+      <c r="D17" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v>Message should be shown: "Incorrect phone format for phone., The phone format is invalid."</v>
       </c>
@@ -8662,7 +8631,7 @@
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G17" s="171" t="str">
+      <c r="G17" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B17,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B17,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8672,17 +8641,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="159"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="94" t="str">
         <f>'Register Suite'!B22</f>
         <v>REG_016</v>
       </c>
       <c r="C18" s="95" t="str">
         <f>VLOOKUP(B18,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v xml:space="preserve">Verify valid referal code
+        <v xml:space="preserve">Verify valid referral code
 </v>
       </c>
-      <c r="D18" s="173" t="str">
+      <c r="D18" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8694,7 +8663,7 @@
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G18" s="171" t="str">
+      <c r="G18" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B18,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B18,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8704,17 +8673,17 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="159"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="94" t="str">
         <f>'Register Suite'!B23</f>
         <v>REG_017</v>
       </c>
       <c r="C19" s="95" t="str">
         <f>VLOOKUP(B19,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v xml:space="preserve">Verify Invalid refferal code
+        <v xml:space="preserve">Verify Invalid referral code
 </v>
       </c>
-      <c r="D19" s="173" t="str">
+      <c r="D19" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8726,7 +8695,7 @@
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G19" s="171" t="str">
+      <c r="G19" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B19,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B19,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8736,16 +8705,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="159"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="94" t="str">
         <f>'Register Suite'!B24</f>
         <v>REG_018</v>
       </c>
       <c r="C20" s="95" t="str">
         <f>VLOOKUP(B20,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd employee account successfully and Incorporated</v>
-      </c>
-      <c r="D20" s="173" t="str">
+        <v>Verify registered employee account successfully and Incorporated</v>
+      </c>
+      <c r="D20" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8757,7 +8726,7 @@
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G20" s="171" t="str">
+      <c r="G20" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B20,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B20,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8767,16 +8736,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="159"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="94" t="str">
         <f>'Register Suite'!B25</f>
         <v>REG_019</v>
       </c>
       <c r="C21" s="95" t="str">
         <f>VLOOKUP(B21,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd employee account successfully and Incorporated</v>
-      </c>
-      <c r="D21" s="173" t="str">
+        <v>Verify registered employee account successfully and Incorporated</v>
+      </c>
+      <c r="D21" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8788,7 +8757,7 @@
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G21" s="171" t="str">
+      <c r="G21" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B21,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B21,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8798,16 +8767,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="159"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="94" t="str">
         <f>'Register Suite'!B26</f>
         <v>REG_020</v>
       </c>
       <c r="C22" s="95" t="str">
         <f>VLOOKUP(B22,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd freelancer account successfully and Incorporated</v>
-      </c>
-      <c r="D22" s="173" t="str">
+        <v>Verify registered freelancer account successfully and Incorporated</v>
+      </c>
+      <c r="D22" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8819,7 +8788,7 @@
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G22" s="171" t="str">
+      <c r="G22" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B22,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B22,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8829,16 +8798,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="159"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="94" t="str">
         <f>'Register Suite'!B27</f>
         <v>REG_021</v>
       </c>
       <c r="C23" s="95" t="str">
         <f>VLOOKUP(B23,'Register Suite'!$B$7:$N$30,3,0)</f>
-        <v>To Verify registerd entrepreneur account successfully and Incorporated</v>
-      </c>
-      <c r="D23" s="173" t="str">
+        <v>Verify registered entrepreneur account successfully and Incorporated</v>
+      </c>
+      <c r="D23" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8850,7 +8819,7 @@
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G23" s="171" t="str">
+      <c r="G23" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B23,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B23,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8860,7 +8829,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="159"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="94" t="str">
         <f>'Register Suite'!B28</f>
         <v>REG_022</v>
@@ -8869,7 +8838,7 @@
         <f>VLOOKUP(B24,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding personal detail form</v>
       </c>
-      <c r="D24" s="173" t="str">
+      <c r="D24" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8881,7 +8850,7 @@
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G24" s="171" t="str">
+      <c r="G24" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B24,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B24,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8891,7 +8860,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="159"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="94" t="str">
         <f>'Register Suite'!B29</f>
         <v>REG_023</v>
@@ -8900,7 +8869,7 @@
         <f>VLOOKUP(B25,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding business detail form</v>
       </c>
-      <c r="D25" s="173" t="str">
+      <c r="D25" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8912,7 +8881,7 @@
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G25" s="171" t="str">
+      <c r="G25" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B25,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B25,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8922,7 +8891,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="159"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="94" t="str">
         <f>'Register Suite'!B30</f>
         <v>REG_024</v>
@@ -8931,7 +8900,7 @@
         <f>VLOOKUP(B26,'Register Suite'!$B$7:$N$30,3,0)</f>
         <v>Verify onboarding identify detail form</v>
       </c>
-      <c r="D26" s="173" t="str">
+      <c r="D26" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,5,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,5,0))</f>
         <v/>
       </c>
@@ -8943,7 +8912,7 @@
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,7,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,7,0))</f>
         <v/>
       </c>
-      <c r="G26" s="171" t="str">
+      <c r="G26" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B26,'Register Suite'!$B$7:$N$30,12,0)),"",  VLOOKUP(B26,'Register Suite'!$B$7:$N$30,12,0))</f>
         <v>NOT YET</v>
       </c>
@@ -8953,8 +8922,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="159" t="s">
-        <v>406</v>
+      <c r="A27" s="172" t="s">
+        <v>394</v>
       </c>
       <c r="B27" s="94" t="str">
         <f>'Login Suite'!B7</f>
@@ -8964,7 +8933,7 @@
         <f>VLOOKUP(B27,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the Login page should be displayed correctly</v>
       </c>
-      <c r="D27" s="173" t="str">
+      <c r="D27" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Login page should be display correctly</v>
       </c>
@@ -8976,7 +8945,7 @@
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G27" s="171" t="str">
+      <c r="G27" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B27,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B27,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -8986,7 +8955,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="159"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="94" t="str">
         <f>'Login Suite'!B8</f>
         <v>LOG_002</v>
@@ -8995,7 +8964,7 @@
         <f>VLOOKUP(B28,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the existing user email login successfully</v>
       </c>
-      <c r="D28" s="173" t="str">
+      <c r="D28" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Home page should be display correctly</v>
       </c>
@@ -9007,7 +8976,7 @@
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G28" s="171" t="str">
+      <c r="G28" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B28,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B28,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9017,7 +8986,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="159"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="94" t="str">
         <f>'Login Suite'!B9</f>
         <v>LOG_003</v>
@@ -9026,7 +8995,7 @@
         <f>VLOOKUP(B29,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the existing  phone number login successfully</v>
       </c>
-      <c r="D29" s="173" t="str">
+      <c r="D29" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Home page should be display correctly</v>
       </c>
@@ -9038,7 +9007,7 @@
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G29" s="171" t="str">
+      <c r="G29" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B29,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B29,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9048,7 +9017,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="159"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="94" t="str">
         <f>'Login Suite'!B10</f>
         <v>LOG_004</v>
@@ -9057,7 +9026,7 @@
         <f>VLOOKUP(B30,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verity unregistered email</v>
       </c>
-      <c r="D30" s="173" t="str">
+      <c r="D30" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The entered email address is invalid."</v>
       </c>
@@ -9069,7 +9038,7 @@
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G30" s="171" t="str">
+      <c r="G30" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B30,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B30,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9079,7 +9048,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="159"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="94" t="str">
         <f>'Login Suite'!B11</f>
         <v>LOG_005</v>
@@ -9088,7 +9057,7 @@
         <f>VLOOKUP(B31,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verity unregistered phone number</v>
       </c>
-      <c r="D31" s="173" t="str">
+      <c r="D31" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The entered phone number is invalid."</v>
       </c>
@@ -9100,7 +9069,7 @@
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G31" s="171" t="str">
+      <c r="G31" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B31,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B31,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9110,7 +9079,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="159"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="94" t="str">
         <f>'Login Suite'!B12</f>
         <v>LOG_006</v>
@@ -9119,7 +9088,7 @@
         <f>VLOOKUP(B32,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify empty username</v>
       </c>
-      <c r="D32" s="173" t="str">
+      <c r="D32" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "The phone field is required when email is not present."</v>
       </c>
@@ -9131,7 +9100,7 @@
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G32" s="171" t="str">
+      <c r="G32" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B32,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B32,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9141,16 +9110,16 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="159"/>
+      <c r="A33" s="172"/>
       <c r="B33" s="94" t="str">
         <f>'Login Suite'!B13</f>
         <v>LOG_007</v>
       </c>
       <c r="C33" s="95" t="str">
         <f>VLOOKUP(B33,'Login Suite'!$B$7:$N$19,3,0)</f>
-        <v>Verify the  email contains special character</v>
-      </c>
-      <c r="D33" s="173" t="str">
+        <v>Verify the email contains special character</v>
+      </c>
+      <c r="D33" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9162,7 +9131,7 @@
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G33" s="171" t="str">
+      <c r="G33" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B33,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B33,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9172,7 +9141,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="159"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="94" t="str">
         <f>'Login Suite'!B14</f>
         <v>LOG_008</v>
@@ -9181,7 +9150,7 @@
         <f>VLOOKUP(B34,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the email missing name</v>
       </c>
-      <c r="D34" s="173" t="str">
+      <c r="D34" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9193,7 +9162,7 @@
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G34" s="171" t="str">
+      <c r="G34" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B34,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B34,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9203,16 +9172,16 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="159"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="94" t="str">
         <f>'Login Suite'!B15</f>
         <v>LOG_009</v>
       </c>
       <c r="C35" s="95" t="str">
         <f>VLOOKUP(B35,'Login Suite'!$B$7:$N$19,3,0)</f>
-        <v>Verify the email mising @ domain</v>
-      </c>
-      <c r="D35" s="173" t="str">
+        <v>Verify the email missing @ domain</v>
+      </c>
+      <c r="D35" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9224,7 +9193,7 @@
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G35" s="171" t="str">
+      <c r="G35" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B35,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B35,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9234,7 +9203,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="159"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="94" t="str">
         <f>'Login Suite'!B16</f>
         <v>LOG_010</v>
@@ -9243,7 +9212,7 @@
         <f>VLOOKUP(B36,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify invalid email domain</v>
       </c>
-      <c r="D36" s="173" t="str">
+      <c r="D36" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9255,7 +9224,7 @@
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G36" s="171" t="str">
+      <c r="G36" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B36,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B36,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9265,7 +9234,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="159"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="94" t="str">
         <f>'Login Suite'!B17</f>
         <v>LOG_011</v>
@@ -9274,7 +9243,7 @@
         <f>VLOOKUP(B37,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the invalid phone number with length more than 21 characters</v>
       </c>
-      <c r="D37" s="173" t="str">
+      <c r="D37" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9286,7 +9255,7 @@
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G37" s="171" t="str">
+      <c r="G37" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B37,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B37,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9296,7 +9265,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="159"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="94" t="str">
         <f>'Login Suite'!B18</f>
         <v>LOG_012</v>
@@ -9305,7 +9274,7 @@
         <f>VLOOKUP(B38,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Verify the invalid phone number contains string</v>
       </c>
-      <c r="D38" s="173" t="str">
+      <c r="D38" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v>Message should be shown: "Registered email or phone is invalid"</v>
       </c>
@@ -9317,7 +9286,7 @@
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G38" s="171" t="str">
+      <c r="G38" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B38,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B38,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>Yes</v>
       </c>
@@ -9327,7 +9296,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="159"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="94" t="str">
         <f>'Login Suite'!B19</f>
         <v>LOG_013</v>
@@ -9336,7 +9305,7 @@
         <f>VLOOKUP(B39,'Login Suite'!$B$7:$N$19,3,0)</f>
         <v>Some other negative tests</v>
       </c>
-      <c r="D39" s="173" t="str">
+      <c r="D39" s="159" t="str">
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,5,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,5,0))</f>
         <v/>
       </c>
@@ -9348,7 +9317,7 @@
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,7,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,7,0))</f>
         <v/>
       </c>
-      <c r="G39" s="171" t="str">
+      <c r="G39" s="157" t="str">
         <f>IF(ISBLANK(VLOOKUP(B39,'Login Suite'!$B$7:$N$19,12,0)),"",  VLOOKUP(B39,'Login Suite'!$B$7:$N$19,12,0))</f>
         <v>No</v>
       </c>
@@ -9365,10 +9334,10 @@
     <mergeCell ref="A27:A39"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E39">
-    <cfRule type="containsText" dxfId="342" priority="17" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="338" priority="17" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="18" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="337" priority="18" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9412,7 +9381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="162" t="s">
         <v>298</v>
       </c>
       <c r="B1" s="71">
@@ -9566,7 +9535,7 @@
         <v>291</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M6" s="78" t="s">
         <v>320</v>
@@ -9576,26 +9545,26 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="80" customFormat="1" ht="270" x14ac:dyDescent="0.15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="173" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="126" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E7" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="129" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="129" t="s">
-        <v>361</v>
       </c>
       <c r="H7" s="128"/>
       <c r="I7" s="126" t="s">
@@ -9618,7 +9587,7 @@
       <c r="P7" s="145"/>
     </row>
     <row r="8" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A8" s="162"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B7)+1,"000")</f>
         <v>REG_002</v>
@@ -9627,16 +9596,16 @@
         <v>341</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>338</v>
       </c>
       <c r="F8" s="152" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G8" s="129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H8" s="128"/>
       <c r="I8" s="126" t="s">
@@ -9659,7 +9628,7 @@
       <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:16" s="80" customFormat="1" ht="180" x14ac:dyDescent="0.15">
-      <c r="A9" s="162"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B8)+1,"000")</f>
         <v>REG_003</v>
@@ -9668,16 +9637,16 @@
         <v>341</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="E9" s="128" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F9" s="152" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G9" s="129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H9" s="128"/>
       <c r="I9" s="126" t="s">
@@ -9700,7 +9669,7 @@
       <c r="P9" s="145"/>
     </row>
     <row r="10" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A10" s="162"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B9)+1,"000")</f>
         <v>REG_004</v>
@@ -9709,16 +9678,16 @@
         <v>341</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F10" s="152" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G10" s="129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H10" s="128"/>
       <c r="I10" s="126" t="s">
@@ -9741,7 +9710,7 @@
       <c r="P10" s="145"/>
     </row>
     <row r="11" spans="1:16" s="80" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A11" s="162"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B10)+1,"000")</f>
         <v>REG_005</v>
@@ -9750,16 +9719,16 @@
         <v>341</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="E11" s="128" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F11" s="152" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G11" s="129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H11" s="128"/>
       <c r="I11" s="126" t="s">
@@ -9782,7 +9751,7 @@
       <c r="P11" s="145"/>
     </row>
     <row r="12" spans="1:16" s="80" customFormat="1" ht="135" x14ac:dyDescent="0.15">
-      <c r="A12" s="162"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B11)+1,"000")</f>
         <v>REG_006</v>
@@ -9791,16 +9760,16 @@
         <v>341</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E12" s="128" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G12" s="129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H12" s="128"/>
       <c r="I12" s="126" t="s">
@@ -9823,7 +9792,7 @@
       <c r="P12" s="145"/>
     </row>
     <row r="13" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="174" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="126" t="str">
@@ -9832,13 +9801,13 @@
       </c>
       <c r="C13" s="133"/>
       <c r="D13" s="128" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E13" s="128" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>325</v>
@@ -9863,20 +9832,20 @@
       <c r="P13" s="145"/>
     </row>
     <row r="14" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A14" s="164"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B13)+1,"000")</f>
         <v>REG_008</v>
       </c>
       <c r="C14" s="133"/>
       <c r="D14" s="128" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E14" s="128" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G14" s="129" t="s">
         <v>325</v>
@@ -9902,20 +9871,20 @@
       <c r="P14" s="145"/>
     </row>
     <row r="15" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A15" s="164"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B14)+1,"000")</f>
         <v>REG_009</v>
       </c>
       <c r="C15" s="152"/>
       <c r="D15" s="128" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E15" s="128" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>325</v>
@@ -9939,17 +9908,17 @@
       <c r="N15" s="134"/>
     </row>
     <row r="16" spans="1:16" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A16" s="164"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B15)+1,"000")</f>
         <v>REG_010</v>
       </c>
       <c r="C16" s="133"/>
       <c r="D16" s="128" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E16" s="128" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F16" s="128" t="s">
         <v>339</v>
@@ -9976,17 +9945,17 @@
       <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:14" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A17" s="164"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B16)+1,"000")</f>
         <v>REG_011</v>
       </c>
       <c r="C17" s="133"/>
       <c r="D17" s="128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="128" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F17" s="128" t="s">
         <v>339</v>
@@ -10013,17 +9982,17 @@
       <c r="N17" s="134"/>
     </row>
     <row r="18" spans="1:14" s="146" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="164"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B17)+1,"000")</f>
         <v>REG_012</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="128" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E18" s="128" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F18" s="128" t="s">
         <v>339</v>
@@ -10050,17 +10019,17 @@
       <c r="N18" s="134"/>
     </row>
     <row r="19" spans="1:14" s="146" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="164"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B18)+1,"000")</f>
         <v>REG_013</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E19" s="128" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F19" s="128" t="s">
         <v>339</v>
@@ -10087,20 +10056,20 @@
       <c r="N19" s="134"/>
     </row>
     <row r="20" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A20" s="164"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B19)+1,"000")</f>
         <v>REG_014</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="128" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E20" s="128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G20" s="129" t="s">
         <v>325</v>
@@ -10124,20 +10093,20 @@
       <c r="N20" s="134"/>
     </row>
     <row r="21" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A21" s="165"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B20)+1,"000")</f>
         <v>REG_015</v>
       </c>
       <c r="C21" s="133"/>
       <c r="D21" s="128" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E21" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F21" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G21" s="129" t="s">
         <v>325</v>
@@ -10161,8 +10130,8 @@
       <c r="N21" s="134"/>
     </row>
     <row r="22" spans="1:14" s="146" customFormat="1" ht="55.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="166" t="s">
-        <v>396</v>
+      <c r="A22" s="177" t="s">
+        <v>389</v>
       </c>
       <c r="B22" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B21)+1,"000")</f>
@@ -10170,7 +10139,7 @@
       </c>
       <c r="C22" s="152"/>
       <c r="D22" s="128" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="128"/>
@@ -10183,19 +10152,19 @@
         <v>298</v>
       </c>
       <c r="M22" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N22" s="167"/>
+        <v>390</v>
+      </c>
+      <c r="N22" s="153"/>
     </row>
     <row r="23" spans="1:14" s="146" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="166"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B22)+1,"000")</f>
         <v>REG_017</v>
       </c>
       <c r="C23" s="152"/>
       <c r="D23" s="128" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="E23" s="128"/>
       <c r="F23" s="128"/>
@@ -10208,19 +10177,19 @@
         <v>298</v>
       </c>
       <c r="M23" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N23" s="167"/>
+        <v>390</v>
+      </c>
+      <c r="N23" s="153"/>
     </row>
     <row r="24" spans="1:14" s="146" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="166"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B23)+1,"000")</f>
         <v>REG_018</v>
       </c>
       <c r="C24" s="152"/>
       <c r="D24" s="128" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="128"/>
@@ -10233,157 +10202,157 @@
         <v>298</v>
       </c>
       <c r="M24" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="N24" s="167"/>
+        <v>390</v>
+      </c>
+      <c r="N24" s="153"/>
     </row>
     <row r="25" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A25" s="166"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B24)+1,"000")</f>
         <v>REG_019</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="128" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E25" s="116"/>
       <c r="F25" s="116"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="126"/>
       <c r="J25" s="86"/>
-      <c r="K25" s="170"/>
+      <c r="K25" s="156"/>
       <c r="L25" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A26" s="166"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B25)+1,"000")</f>
         <v>REG_020</v>
       </c>
       <c r="C26" s="116"/>
       <c r="D26" s="128" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E26" s="116"/>
       <c r="F26" s="116"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="155"/>
       <c r="I26" s="126"/>
       <c r="J26" s="86"/>
-      <c r="K26" s="170"/>
+      <c r="K26" s="156"/>
       <c r="L26" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M26" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A27" s="166"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B26)+1,"000")</f>
         <v>REG_021</v>
       </c>
       <c r="C27" s="116"/>
       <c r="D27" s="128" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
       <c r="I27" s="126"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="170"/>
+      <c r="K27" s="156"/>
       <c r="L27" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M27" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="166"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B27)+1,"000")</f>
         <v>REG_022</v>
       </c>
       <c r="C28" s="116"/>
       <c r="D28" s="116" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
       <c r="I28" s="126"/>
       <c r="J28" s="86"/>
-      <c r="K28" s="170"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M28" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="166"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B28)+1,"000")</f>
         <v>REG_023</v>
       </c>
       <c r="C29" s="116"/>
       <c r="D29" s="116" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E29" s="116"/>
       <c r="F29" s="116"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="169"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
       <c r="I29" s="126"/>
       <c r="J29" s="86"/>
-      <c r="K29" s="170"/>
+      <c r="K29" s="156"/>
       <c r="L29" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M29" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="166"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="126" t="str">
         <f>"REG_"&amp;TEXT(COUNTA(B$7:B29)+1,"000")</f>
         <v>REG_024</v>
       </c>
       <c r="C30" s="116"/>
       <c r="D30" s="116" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E30" s="116"/>
       <c r="F30" s="116"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
       <c r="I30" s="126"/>
       <c r="J30" s="86"/>
-      <c r="K30" s="170"/>
+      <c r="K30" s="156"/>
       <c r="L30" s="126" t="s">
         <v>298</v>
       </c>
       <c r="M30" s="126" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="N30" s="82"/>
     </row>
@@ -10394,873 +10363,873 @@
     <mergeCell ref="A22:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:C30">
-    <cfRule type="expression" dxfId="340" priority="247">
+    <cfRule type="expression" dxfId="336" priority="247">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="339" priority="246">
+    <cfRule type="expression" dxfId="335" priority="246">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F29 G22:G24 G16:G17 E16:E29">
-    <cfRule type="expression" dxfId="338" priority="248">
+    <cfRule type="expression" dxfId="334" priority="248">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K29 G25:H29 F22:F24 K12 F16:F18 M22:M23">
-    <cfRule type="expression" dxfId="337" priority="245">
+    <cfRule type="expression" dxfId="333" priority="245">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="336" priority="242" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="332" priority="242" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="243" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="331" priority="243" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="244" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="330" priority="244" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="333" priority="237" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="329" priority="237" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="238" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="328" priority="238" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="239" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="327" priority="239" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="240" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="326" priority="240" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="241" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="325" priority="241" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L62))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="328" priority="234" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="324" priority="234" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="235" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="323" priority="235" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N12))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="236" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="322" priority="236" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="containsText" dxfId="325" priority="225" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="321" priority="225" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="226" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="320" priority="226" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="227" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="319" priority="227" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="containsText" dxfId="322" priority="222" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="318" priority="222" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="223" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="317" priority="223" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="224" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="316" priority="224" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="319" priority="216" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="315" priority="216" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="217" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="314" priority="217" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="218" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="313" priority="218" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="316" priority="219" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="312" priority="219" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="220" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="311" priority="220" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="221" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="310" priority="221" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="313" priority="210" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="309" priority="210" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="211" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="308" priority="211" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="212" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="307" priority="212" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="310" priority="213" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="306" priority="213" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="214" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="305" priority="214" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="215" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="304" priority="215" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="307" priority="204" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="303" priority="204" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="205" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="302" priority="205" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="206" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="301" priority="206" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="304" priority="207" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="300" priority="207" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="208" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="299" priority="208" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="209" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="298" priority="209" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 K22:K24 C16:C24">
-    <cfRule type="expression" dxfId="301" priority="203">
+    <cfRule type="expression" dxfId="297" priority="203">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 H22:H24 H12 H16:H17 D16:D24">
-    <cfRule type="expression" dxfId="300" priority="202">
+    <cfRule type="expression" dxfId="296" priority="202">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="299" priority="200">
+    <cfRule type="expression" dxfId="295" priority="200">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G22:G24 G16:G17 M22:M23">
-    <cfRule type="expression" dxfId="298" priority="201">
+    <cfRule type="expression" dxfId="294" priority="201">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="297" priority="197" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="293" priority="197" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="198" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="292" priority="198" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="199" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="291" priority="199" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="294" priority="195">
+    <cfRule type="expression" dxfId="290" priority="195">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="293" priority="196">
+    <cfRule type="expression" dxfId="289" priority="196">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="292" priority="194">
+    <cfRule type="expression" dxfId="288" priority="194">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="291" priority="193">
+    <cfRule type="expression" dxfId="287" priority="193">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="290" priority="190" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="286" priority="190" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="191" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="285" priority="191" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N7))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="192" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="284" priority="192" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="286" priority="188">
+    <cfRule type="expression" dxfId="283" priority="188">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="285" priority="187">
+    <cfRule type="expression" dxfId="282" priority="187">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N9">
-    <cfRule type="containsText" dxfId="284" priority="184" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="281" priority="184" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="185" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="280" priority="185" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="186" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="279" priority="186" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="281" priority="183">
+    <cfRule type="expression" dxfId="278" priority="183">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="280" priority="182">
+    <cfRule type="expression" dxfId="277" priority="182">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="279" priority="177" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="276" priority="177" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="178" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="275" priority="178" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L8))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="179" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="274" priority="179" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H19">
-    <cfRule type="expression" dxfId="276" priority="176">
+    <cfRule type="expression" dxfId="273" priority="176">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="275" priority="174">
+    <cfRule type="expression" dxfId="272" priority="174">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="274" priority="170">
+    <cfRule type="expression" dxfId="271" priority="170">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="273" priority="163" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="270" priority="163" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="164" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="269" priority="164" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="165" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="268" priority="165" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="270" priority="162">
+    <cfRule type="expression" dxfId="267" priority="162">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="269" priority="159" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="266" priority="159" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L17))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="160" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="265" priority="160" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L17))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="161" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="264" priority="161" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="266" priority="158">
+    <cfRule type="expression" dxfId="263" priority="158">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="265" priority="156">
+    <cfRule type="expression" dxfId="262" priority="156">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="264" priority="157">
+    <cfRule type="expression" dxfId="261" priority="157">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="263" priority="155">
+    <cfRule type="expression" dxfId="260" priority="155">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="262" priority="152" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="259" priority="152" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="153" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="258" priority="153" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L18))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="154" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="257" priority="154" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="259" priority="151">
+    <cfRule type="expression" dxfId="256" priority="151">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="expression" dxfId="258" priority="150">
+    <cfRule type="expression" dxfId="255" priority="150">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="257" priority="148">
+    <cfRule type="expression" dxfId="254" priority="148">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="256" priority="149">
+    <cfRule type="expression" dxfId="253" priority="149">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="255" priority="145" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="252" priority="145" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L19))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="146" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="251" priority="146" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L19))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="147" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="250" priority="147" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="252" priority="144">
+    <cfRule type="expression" dxfId="249" priority="144">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="251" priority="143">
+    <cfRule type="expression" dxfId="248" priority="143">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="250" priority="141">
+    <cfRule type="expression" dxfId="247" priority="141">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="249" priority="142">
+    <cfRule type="expression" dxfId="246" priority="142">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="248" priority="138" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="245" priority="138" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L20))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="139" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="244" priority="139" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L20))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="140" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="243" priority="140" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="245" priority="137">
+    <cfRule type="expression" dxfId="242" priority="137">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="244" priority="136">
+    <cfRule type="expression" dxfId="241" priority="136">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="243" priority="135">
+    <cfRule type="expression" dxfId="240" priority="135">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="242" priority="133">
+    <cfRule type="expression" dxfId="239" priority="133">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="241" priority="134">
+    <cfRule type="expression" dxfId="238" priority="134">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="240" priority="130" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="237" priority="130" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L21))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="131" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="236" priority="131" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L21))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="132" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="235" priority="132" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="237" priority="129">
+    <cfRule type="expression" dxfId="234" priority="129">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="236" priority="128">
+    <cfRule type="expression" dxfId="233" priority="128">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="235" priority="127">
+    <cfRule type="expression" dxfId="232" priority="127">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="234" priority="126">
+    <cfRule type="expression" dxfId="231" priority="126">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="233" priority="125">
+    <cfRule type="expression" dxfId="230" priority="125">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="232" priority="123">
+    <cfRule type="expression" dxfId="229" priority="123">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="231" priority="124">
+    <cfRule type="expression" dxfId="228" priority="124">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="230" priority="120">
+    <cfRule type="expression" dxfId="227" priority="120">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="229" priority="117">
+    <cfRule type="expression" dxfId="226" priority="117">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="228" priority="118">
+    <cfRule type="expression" dxfId="225" priority="118">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="227" priority="116">
+    <cfRule type="expression" dxfId="224" priority="116">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="226" priority="115">
+    <cfRule type="expression" dxfId="223" priority="115">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="225" priority="65">
+    <cfRule type="expression" dxfId="222" priority="65">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="224" priority="96">
+    <cfRule type="expression" dxfId="221" priority="96">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="223" priority="95">
+    <cfRule type="expression" dxfId="220" priority="95">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="222" priority="94">
+    <cfRule type="expression" dxfId="219" priority="94">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="221" priority="107">
+    <cfRule type="expression" dxfId="218" priority="107">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="220" priority="57">
+    <cfRule type="expression" dxfId="217" priority="57">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="219" priority="56">
+    <cfRule type="expression" dxfId="216" priority="56">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="218" priority="88">
+    <cfRule type="expression" dxfId="215" priority="88">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="214" priority="99" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L9))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="213" priority="100" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L9))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="212" priority="101" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="214" priority="98">
+    <cfRule type="expression" dxfId="211" priority="98">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="213" priority="97">
+    <cfRule type="expression" dxfId="210" priority="97">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="212" priority="92">
+    <cfRule type="expression" dxfId="209" priority="92">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="211" priority="93">
+    <cfRule type="expression" dxfId="208" priority="93">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="210" priority="91">
+    <cfRule type="expression" dxfId="207" priority="91">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="209" priority="90">
+    <cfRule type="expression" dxfId="206" priority="90">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="208" priority="89">
+    <cfRule type="expression" dxfId="205" priority="89">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="207" priority="72">
+    <cfRule type="expression" dxfId="204" priority="72">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="containsText" dxfId="206" priority="85" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="203" priority="85" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="86" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="202" priority="86" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="87" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="201" priority="87" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="203" priority="82" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="200" priority="82" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="83" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="199" priority="83" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="84" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="198" priority="84" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="200" priority="81">
+    <cfRule type="expression" dxfId="197" priority="81">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="199" priority="80">
+    <cfRule type="expression" dxfId="196" priority="80">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="198" priority="79">
+    <cfRule type="expression" dxfId="195" priority="79">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="197" priority="78">
+    <cfRule type="expression" dxfId="194" priority="78">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="196" priority="77">
+    <cfRule type="expression" dxfId="193" priority="77">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="195" priority="76">
+    <cfRule type="expression" dxfId="192" priority="76">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="194" priority="74">
+    <cfRule type="expression" dxfId="191" priority="74">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="193" priority="75">
+    <cfRule type="expression" dxfId="190" priority="75">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="192" priority="73">
+    <cfRule type="expression" dxfId="189" priority="73">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="191" priority="69" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="188" priority="69" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(N11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="70" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="187" priority="70" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(N11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="71" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="186" priority="71" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(N11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="188" priority="66" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="185" priority="66" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="67" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="184" priority="67" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="68" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="183" priority="68" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="185" priority="64">
+    <cfRule type="expression" dxfId="182" priority="64">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="184" priority="63">
+    <cfRule type="expression" dxfId="181" priority="63">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="183" priority="62">
+    <cfRule type="expression" dxfId="180" priority="62">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="182" priority="61">
+    <cfRule type="expression" dxfId="179" priority="61">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="181" priority="60">
+    <cfRule type="expression" dxfId="178" priority="60">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="180" priority="58">
+    <cfRule type="expression" dxfId="177" priority="58">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="179" priority="59">
+    <cfRule type="expression" dxfId="176" priority="59">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="178" priority="55">
+    <cfRule type="expression" dxfId="175" priority="55">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="177" priority="54">
+    <cfRule type="expression" dxfId="174" priority="54">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="176" priority="53">
+    <cfRule type="expression" dxfId="173" priority="53">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="175" priority="52">
+    <cfRule type="expression" dxfId="172" priority="52">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 H14">
-    <cfRule type="expression" dxfId="174" priority="50">
+    <cfRule type="expression" dxfId="171" priority="50">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="173" priority="49">
+    <cfRule type="expression" dxfId="170" priority="49">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="172" priority="46" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="169" priority="46" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="47" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="168" priority="47" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="48" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="167" priority="48" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="169" priority="45">
+    <cfRule type="expression" dxfId="166" priority="45">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 E13">
-    <cfRule type="expression" dxfId="168" priority="44">
+    <cfRule type="expression" dxfId="165" priority="44">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 H13">
-    <cfRule type="expression" dxfId="167" priority="42">
+    <cfRule type="expression" dxfId="164" priority="42">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="166" priority="41">
+    <cfRule type="expression" dxfId="163" priority="41">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="165" priority="38" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="162" priority="38" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L13))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="39" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="161" priority="39" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L13))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="40" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="160" priority="40" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="162" priority="37">
+    <cfRule type="expression" dxfId="159" priority="37">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="161" priority="36">
+    <cfRule type="expression" dxfId="158" priority="36">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="160" priority="35">
+    <cfRule type="expression" dxfId="157" priority="35">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="159" priority="34">
+    <cfRule type="expression" dxfId="156" priority="34">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="158" priority="33">
+    <cfRule type="expression" dxfId="155" priority="33">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="157" priority="32">
+    <cfRule type="expression" dxfId="154" priority="32">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 H15">
-    <cfRule type="expression" dxfId="156" priority="31">
+    <cfRule type="expression" dxfId="153" priority="31">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="155" priority="30">
+    <cfRule type="expression" dxfId="152" priority="30">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="154" priority="27" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L15))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="28" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L15))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="29" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="151" priority="26">
+    <cfRule type="expression" dxfId="148" priority="26">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="150" priority="25">
+    <cfRule type="expression" dxfId="147" priority="25">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="149" priority="24">
+    <cfRule type="expression" dxfId="146" priority="24">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="148" priority="23">
+    <cfRule type="expression" dxfId="145" priority="23">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M21">
-    <cfRule type="expression" dxfId="147" priority="21">
+    <cfRule type="expression" dxfId="144" priority="21">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M21">
-    <cfRule type="expression" dxfId="146" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M29">
-    <cfRule type="expression" dxfId="145" priority="20">
+    <cfRule type="expression" dxfId="142" priority="20">
       <formula>#REF!="SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M29">
-    <cfRule type="expression" dxfId="144" priority="19">
+    <cfRule type="expression" dxfId="141" priority="19">
       <formula>#REF!="FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="143" priority="16" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="140" priority="16" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH(("PASSED"),(L22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="17" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH(("FAILED"),(L22))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="18" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH(("SKIP"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11352,7 +11321,7 @@
   <dimension ref="A1:P461"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -11530,7 +11499,7 @@
         <v>291</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M6" s="78" t="s">
         <v>320</v>
@@ -11540,7 +11509,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="173" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="126" t="s">
@@ -11582,7 +11551,7 @@
       <c r="P7" s="145"/>
     </row>
     <row r="8" spans="1:16" s="80" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A8" s="162"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B7)+1,"000")</f>
         <v>LOG_002</v>
@@ -11591,7 +11560,7 @@
         <v>342</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>345</v>
@@ -11623,7 +11592,7 @@
       <c r="P8" s="145"/>
     </row>
     <row r="9" spans="1:16" s="80" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A9" s="162"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B8)+1,"000")</f>
         <v>LOG_003</v>
@@ -11664,7 +11633,7 @@
       <c r="P9" s="145"/>
     </row>
     <row r="10" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="178" t="s">
         <v>314</v>
       </c>
       <c r="B10" s="126" t="str">
@@ -11672,7 +11641,7 @@
         <v>LOG_004</v>
       </c>
       <c r="C10" s="150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D10" s="128" t="s">
         <v>347</v>
@@ -11706,13 +11675,13 @@
       <c r="P10" s="145"/>
     </row>
     <row r="11" spans="1:16" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.15">
-      <c r="A11" s="161"/>
+      <c r="A11" s="178"/>
       <c r="B11" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B10)+1,"000")</f>
         <v>LOG_005</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D11" s="128" t="s">
         <v>348</v>
@@ -11747,7 +11716,7 @@
       <c r="P11" s="145"/>
     </row>
     <row r="12" spans="1:16" s="146" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A12" s="161"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B11)+1,"000")</f>
         <v>LOG_006</v>
@@ -11784,14 +11753,14 @@
       <c r="N12" s="134"/>
     </row>
     <row r="13" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A13" s="161"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B12)+1,"000")</f>
         <v>LOG_007</v>
       </c>
       <c r="C13" s="127"/>
       <c r="D13" s="128" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>331</v>
@@ -11821,14 +11790,14 @@
       <c r="N13" s="148"/>
     </row>
     <row r="14" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A14" s="161"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B13)+1,"000")</f>
         <v>LOG_008</v>
       </c>
       <c r="C14" s="127"/>
       <c r="D14" s="128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E14" s="128" t="s">
         <v>333</v>
@@ -11858,16 +11827,16 @@
       <c r="N14" s="134"/>
     </row>
     <row r="15" spans="1:16" s="146" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="161"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B14)+1,"000")</f>
         <v>LOG_009</v>
       </c>
       <c r="C15" s="127"/>
-      <c r="D15" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="128" t="s">
+      <c r="D15" s="163" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="163" t="s">
         <v>334</v>
       </c>
       <c r="F15" s="128" t="s">
@@ -11895,14 +11864,14 @@
       <c r="N15" s="134"/>
     </row>
     <row r="16" spans="1:16" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A16" s="161"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B15)+1,"000")</f>
         <v>LOG_010</v>
       </c>
       <c r="C16" s="127"/>
       <c r="D16" s="128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E16" s="128" t="s">
         <v>335</v>
@@ -11932,14 +11901,14 @@
       <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:14" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A17" s="161"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B16)+1,"000")</f>
         <v>LOG_011</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="128" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E17" s="128" t="s">
         <v>336</v>
@@ -11969,14 +11938,14 @@
       <c r="N17" s="134"/>
     </row>
     <row r="18" spans="1:14" s="146" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="161"/>
+      <c r="A18" s="178"/>
       <c r="B18" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B17)+1,"000")</f>
         <v>LOG_012</v>
       </c>
       <c r="C18" s="127"/>
       <c r="D18" s="128" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E18" s="128" t="s">
         <v>337</v>
@@ -12006,14 +11975,14 @@
       <c r="N18" s="134"/>
     </row>
     <row r="19" spans="1:14" s="146" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="161"/>
+      <c r="A19" s="178"/>
       <c r="B19" s="126" t="str">
         <f>"LOG_"&amp;TEXT(COUNTA(B$7:B18)+1,"000")</f>
         <v>LOG_013</v>
       </c>
       <c r="C19" s="127"/>
       <c r="D19" s="128" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="128"/>
@@ -12023,10 +11992,10 @@
       <c r="J19" s="126"/>
       <c r="K19" s="131"/>
       <c r="L19" s="126" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="N19" s="134"/>
     </row>
@@ -41541,18 +41510,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41575,14 +41544,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66080F70-78A9-49A1-8D7B-15E03C53B94C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0C0904-25A0-4FA7-B212-D4BB6E57D741}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -41597,4 +41558,12 @@
     <ds:schemaRef ds:uri="3529c15b-f721-48fc-a72e-2ebe1c3de0cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66080F70-78A9-49A1-8D7B-15E03C53B94C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>